--- a/Documentation/Actual Leave Data 2012-2016.xlsx
+++ b/Documentation/Actual Leave Data 2012-2016.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
   <si>
     <t>Participated for own illness leave</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sources: </t>
+  </si>
+  <si>
+    <t>~10,000</t>
+  </si>
+  <si>
+    <t>~30,000</t>
   </si>
 </sst>
 </file>
@@ -116,8 +122,8 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -172,15 +178,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
@@ -468,7 +474,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +506,7 @@
         <v>68691.75</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -556,7 +562,7 @@
         <v>24112</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,7 +1072,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
